--- a/angular/src/MatrizLotes.xlsx
+++ b/angular/src/MatrizLotes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>contenedor</t>
   </si>
@@ -31,33 +31,33 @@
     <t>lote</t>
   </si>
   <si>
+    <t>materiaPrima</t>
+  </si>
+  <si>
+    <t>proveedor</t>
+  </si>
+  <si>
+    <t>origen</t>
+  </si>
+  <si>
+    <t>trader</t>
+  </si>
+  <si>
     <t>nro</t>
   </si>
   <si>
-    <t>materiaPrima</t>
-  </si>
-  <si>
-    <t>proveedor</t>
-  </si>
-  <si>
-    <t>origen</t>
-  </si>
-  <si>
-    <t>tipoMuestreo</t>
+    <t>procedencia</t>
+  </si>
+  <si>
+    <t>retiroMuestreo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -72,17 +72,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -91,7 +106,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,53 +401,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A2:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A3" sqref="A3:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.5703125"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="1025" width="11.5703125"/>
+    <col min="2" max="2" width="12.85546875"/>
+    <col min="4" max="8" width="11.5703125"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
